--- a/data/checked/china/fujian/fujianCaseStatistics_20200402.xlsx
+++ b/data/checked/china/fujian/fujianCaseStatistics_20200402.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\checked\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1950030-BF6E-42E7-A92F-D6A340B468F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F8E9F-2300-4310-8F1B-099F18FE3D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16920" windowHeight="12130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10846,9 +10846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3:AF89"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" customHeight="1"/>
@@ -11054,8 +11054,7 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19">
+      <c r="I2" s="19">
         <v>4</v>
       </c>
       <c r="K2" s="19">
@@ -17202,8 +17201,7 @@
         <v>119</v>
       </c>
       <c r="H77" s="15"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19">
+      <c r="I77" s="19">
         <v>4</v>
       </c>
       <c r="K77" s="19">
@@ -17293,7 +17291,6 @@
         <v>120</v>
       </c>
       <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
       <c r="M78" s="15"/>
@@ -17374,8 +17371,7 @@
       <c r="H79" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19">
+      <c r="I79" s="19">
         <v>1</v>
       </c>
       <c r="K79" s="19"/>
@@ -17457,7 +17453,6 @@
         <v>122</v>
       </c>
       <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
       <c r="K80" s="19">
         <v>1</v>
       </c>
@@ -17542,8 +17537,7 @@
       <c r="H81" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19">
+      <c r="I81" s="19">
         <v>1</v>
       </c>
       <c r="K81" s="19"/>
@@ -17625,7 +17619,6 @@
         <v>124</v>
       </c>
       <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
       <c r="K82" s="19"/>
       <c r="L82" s="19"/>
       <c r="M82" s="15"/>
@@ -17704,7 +17697,7 @@
       <c r="H83" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J83" s="19">
+      <c r="I83" s="19">
         <v>1</v>
       </c>
       <c r="P83" s="19">
@@ -18070,7 +18063,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P47:Q47 P48:R51 P32:P45 Q41:Q45 R32:R40 I29:L31 I32:K45 S29:S51 P46:R46 P2:R31 S2:X28 I2:O28 T29:X1048576 M29:O1048576 P52:S1048576 I46:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P47:Q47 P48:R51 P32:P45 Q41:Q45 R32:R40 I29:L31 I32:K45 S29:S51 P46:R46 P2:R31 S2:X28 T29:X1048576 M29:O1048576 P52:S1048576 I77:I84 I46:L76 I85:L1048576 K77:L84 I2 I3:O28 K2:O2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
